--- a/Wordle.xlsx
+++ b/Wordle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gurudev/Desktop/Wordle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A1FA37C-69FB-0D40-B0DE-450A921303E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629E086D-06CC-244E-8C66-62D3BD5D19D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2000" yWindow="500" windowWidth="12800" windowHeight="15500" xr2:uid="{5D4888DE-B7A4-EF48-91FB-D045A24BF316}"/>
+    <workbookView xWindow="1280" yWindow="520" windowWidth="12800" windowHeight="15500" xr2:uid="{5D4888DE-B7A4-EF48-91FB-D045A24BF316}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>Turn</t>
   </si>
@@ -79,6 +79,15 @@
   </si>
   <si>
     <t>Took 5357 seconds</t>
+  </si>
+  <si>
+    <t>Strategy: minimize expected log(branch size) but starting with RAISE</t>
+  </si>
+  <si>
+    <t>Took 4913 seconds</t>
+  </si>
+  <si>
+    <t>Hardest words were POKER/JOKER and CORER/COVER</t>
   </si>
 </sst>
 </file>
@@ -430,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A112E79-8C40-F244-BE95-60866DD35E28}">
-  <dimension ref="B1:F66"/>
+  <dimension ref="B1:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1026,7 +1035,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B65">
         <v>6</v>
       </c>
@@ -1038,7 +1047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C66">
         <v>2315</v>
       </c>
@@ -1049,6 +1058,112 @@
       <c r="E66">
         <f>D66/2315</f>
         <v>3.5615550755939527</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>15</v>
+      </c>
+      <c r="F69" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>0</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <f>C71*B71</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="C72">
+        <v>57</v>
+      </c>
+      <c r="D72">
+        <f t="shared" ref="D72:D76" si="6">C72*B72</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B73">
+        <v>3</v>
+      </c>
+      <c r="C73">
+        <v>1174</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="6"/>
+        <v>3522</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B74">
+        <v>4</v>
+      </c>
+      <c r="C74">
+        <v>1018</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="6"/>
+        <v>4072</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B75">
+        <v>5</v>
+      </c>
+      <c r="C75">
+        <v>63</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="6"/>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B76">
+        <v>6</v>
+      </c>
+      <c r="C76">
+        <v>2</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C77">
+        <v>2315</v>
+      </c>
+      <c r="D77">
+        <f>SUM(D71:D76)</f>
+        <v>8036</v>
+      </c>
+      <c r="E77">
+        <f>D77/2315</f>
+        <v>3.4712742980561555</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
